--- a/references/socalleddesign.xlsx
+++ b/references/socalleddesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yubichennai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fidelity\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2191DA48-9EE9-4306-8430-3360E045B947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5AAF9-7B30-444C-9F12-C997346E76F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Scneario ( do all the story telling you want)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>what will be the reponse.. With details  with http status codes</t>
+  </si>
+  <si>
+    <t>transactions if any</t>
   </si>
 </sst>
 </file>
@@ -300,15 +303,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -333,26 +336,29 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
     </row>
   </sheetData>
